--- a/static/beta/docs/Messer-Score-Sheet.xlsx
+++ b/static/beta/docs/Messer-Score-Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9480" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">Sue Orwin at sueorwin@btinternet.com </t>
   </si>
   <si>
-    <t>MESSER TROPHY 2018-2019</t>
+    <t>MESSER TROPHY 2019-2020</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="B1" sqref="B1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/static/beta/docs/Messer-Score-Sheet.xlsx
+++ b/static/beta/docs/Messer-Score-Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -122,32 +122,30 @@
     <t xml:space="preserve">Section A/B </t>
   </si>
   <si>
-    <t>One without the other won't count as a</t>
-  </si>
-  <si>
-    <t>receipt of the result.</t>
-  </si>
-  <si>
-    <t>by the winning team to the Messer Secretary,</t>
-  </si>
-  <si>
-    <t>This sheet should be filled in and emailed</t>
-  </si>
-  <si>
-    <t>with a scan/photo of the signed sheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sue Orwin at sueorwin@btinternet.com </t>
-  </si>
-  <si>
-    <t>MESSER TROPHY 2019-2020</t>
+    <t>MESSER TROPHY 2022-2023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This sheet should be filled in and emailed by the winning team to the Messer Sceretary, Sue Orwin at stockportbadminton18@btinternet.com with a scan/photo of the signed sheet. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>One without the other won't count as a receipt of the result.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,15 +168,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,12 +179,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -282,26 +267,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -313,15 +288,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -329,7 +295,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P2"/>
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,42 +667,42 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="B1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -763,15 +729,15 @@
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -824,10 +790,10 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -841,10 +807,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -861,10 +827,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -881,10 +847,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -907,79 +873,79 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="11" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="12"/>
+      <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="12"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="10"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="12"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="10"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -989,17 +955,17 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="12"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="10"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1015,138 +981,138 @@
         <v>29</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="12"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="10"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="12"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="12"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="12"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I18" s="6"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="12"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I19" s="6"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="12"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I20" s="6"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1155,12 +1121,12 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1175,7 +1141,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1193,16 +1159,16 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="1"/>
@@ -1214,94 +1180,112 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="24" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="16">
+      <c r="E25" s="18"/>
+      <c r="F25" s="12">
         <f>SUM(N12:N20)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="11">
         <f>SUM(O12:O20)</f>
         <v>0</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
+      <c r="I25" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
       <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="15">
+      <c r="E26" s="18"/>
+      <c r="F26" s="11">
         <f>SUM(J12:J20,L12:L17)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="11">
         <f>SUM(K12:K20,M12:M17)</f>
         <v>0</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
       <c r="P26" s="1"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
       <c r="P27" s="1"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1310,46 +1294,50 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
       <c r="P28" s="1"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
       <c r="P29" s="1"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1358,21 +1346,23 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
       <c r="P30" s="1"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1381,19 +1371,23 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="1"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1410,6 +1404,13 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -1431,21 +1432,13 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="14">
-    <mergeCell ref="R31:T31"/>
+  <mergeCells count="6">
+    <mergeCell ref="I25:O31"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="B1:P2"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I25:O25"/>
-    <mergeCell ref="I26:O26"/>
-    <mergeCell ref="I27:O27"/>
-    <mergeCell ref="I28:O28"/>
-    <mergeCell ref="I29:O29"/>
-    <mergeCell ref="I30:O30"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="R28:T28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/static/beta/docs/Messer-Score-Sheet.xlsx
+++ b/static/beta/docs/Messer-Score-Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueorwin\Documents\SL\Messer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65127514bf252616/Documents/SL/Messer/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{38EEA030-0E28-4E01-8074-EA2C972F4CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E594030B-728B-432B-B4BE-B1F8521695A4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9480" windowHeight="7005"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,15 +23,25 @@
   <definedNames>
     <definedName name="Divisions">[1]Sheet1!$B$2:$B$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
-  <si>
-    <t>Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Home Team</t>
   </si>
@@ -117,12 +128,6 @@
   </si>
   <si>
     <t>Adj H/Cp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section A/B </t>
-  </si>
-  <si>
-    <t>MESSER TROPHY 2022-2023</t>
   </si>
   <si>
     <r>
@@ -140,12 +145,24 @@
       <t>One without the other won't count as a receipt of the result.</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">MESSER TROPHY 2023-2024 </t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>A / B</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +180,20 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -258,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -273,19 +304,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -294,9 +322,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -315,7 +347,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Match Info"/>
@@ -360,9 +392,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -400,9 +432,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,7 +469,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,7 +504,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -645,99 +677,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" customWidth="1"/>
-    <col min="5" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="16" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="32.54296875" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" customWidth="1"/>
+    <col min="5" max="6" width="5.26953125" customWidth="1"/>
+    <col min="7" max="7" width="5.36328125" customWidth="1"/>
+    <col min="8" max="8" width="5.26953125" customWidth="1"/>
+    <col min="9" max="9" width="6.08984375" customWidth="1"/>
+    <col min="10" max="16" width="5.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="C4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -745,38 +778,34 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -787,14 +816,20 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="19"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -805,15 +840,13 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -825,10 +858,10 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="1"/>
@@ -845,10 +878,10 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="1"/>
@@ -857,106 +890,106 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="6" t="s">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="10"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K11" s="19"/>
+      <c r="L11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="19"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="6"/>
+      <c r="H13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="10"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="5"/>
@@ -965,24 +998,18 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="5"/>
@@ -991,18 +1018,24 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="10"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="19"/>
       <c r="H16" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
@@ -1011,20 +1044,18 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="1"/>
       <c r="H17" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
@@ -1033,12 +1064,12 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="1"/>
@@ -1046,21 +1077,21 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="1"/>
@@ -1068,21 +1099,21 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="5"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="1"/>
@@ -1090,41 +1121,43 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="5"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="H21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="1"/>
@@ -1141,304 +1174,177 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="I23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
+      <c r="H25" s="1"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="17" t="s">
+      <c r="E26" s="15"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="12">
-        <f>SUM(N12:N20)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <f>SUM(O12:O20)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="1"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="17" t="s">
+      <c r="E27" s="15"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="11">
-        <f>SUM(J12:J20,L12:L17)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="11">
-        <f>SUM(K12:K20,M12:M17)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="1"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="1"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
       <c r="P28" s="1"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="4"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
       <c r="P29" s="1"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" s="1"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="1"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="6">
-    <mergeCell ref="I25:O31"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="I23:O29"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="B1:P2"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1446,24 +1352,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
